--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_218.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_218.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,676 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56), (2.36, 5.68)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (25.48, 32.58)]</t>
+          <t>[('0:01:14.500000', '0:01:20.420000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4540540540540541</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.14, 22.68)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5)]</t>
+          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min'], ['C:min', 'G:7', 'C:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(13.648526, 21.12535), (1.129708, 6.12526)]</t>
+          <t>[('0:00:07.400000', '0:00:18.240000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:14.780000', '0:00:19.020000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(25.48, 32.76), (74.8, 81.06)]</t>
+          <t>[('0:00:43.740000', '0:00:55.620000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:07.820000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.6, 32.34)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(32.7, 45.64)]</t>
+          <t>[('0:00:47.800000', '0:01:38.980000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (26.2, 33.96)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8), (0.3, 3.34)]</t>
+          <t>[('0:00:07.700000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(27.52, 38.5)]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(46.06, 55.66)]</t>
+          <t>[('0:00:07.700000', '0:00:18.640000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:16.260000', '0:00:21.140000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(35.14, 39.9)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(31.34, 33.52)]</t>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(32.98, 35.26)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(36.4, 41.7)]</t>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(90.92, 100.48)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(36.4, 44.08)]</t>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
-        </is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(41.32, 49.38)]</t>
+          <t>[['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(96.26, 107.18)]</t>
+          <t>[('0:00:31.840929', '0:00:39.410634')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:02:01.080000', '0:02:02.360000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1304347826086956</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E', 'E/7', 'C#:min'], ['C#:min', 'C#:min/b7', 'A'], ['B', 'E', 'E/7']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F', 'F/7', 'D:min'], ['D:min', 'D:min/b7', 'Bb'], ['C', 'F', 'F']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(10.501791, 15.122562), (13.148866, 18.419795), (9.201473, 13.148866)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(15.300272, 18.887755), (42.351519, 44.232335), (55.935192, 62.15814)]</t>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02)]</t>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(77.72, 95.68)]</t>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(9.7, 15.02)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(105.28, 122.26)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
